--- a/Gal Monitoramento INCORRETO 05.11.xlsx
+++ b/Gal Monitoramento INCORRETO 05.11.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="1088">
   <si>
     <t>Requisicao</t>
   </si>
@@ -211,9 +211,6 @@
     <t>201410005876</t>
   </si>
   <si>
-    <t>201410005877</t>
-  </si>
-  <si>
     <t>201410005878</t>
   </si>
   <si>
@@ -457,9 +454,6 @@
     <t>JANAINA QUEIROZ DOS SANTOS</t>
   </si>
   <si>
-    <t>LUCIANA APARECIDA DOS SANTOS</t>
-  </si>
-  <si>
     <t>APARECIDA ANATALINA RIBEIRO</t>
   </si>
   <si>
@@ -1183,18 +1177,18 @@
     <t>Negativo dentro do periodo de 14 dias</t>
   </si>
   <si>
+    <t>Apenas CadSUS sem ser início 7 e requisição já inserida anteriormente</t>
+  </si>
+  <si>
+    <t>Negativo no GAL sem negativo equivalente no Assessor nem suspeita em aberto</t>
+  </si>
+  <si>
+    <t>Negativo sem notificacoes no Assessor</t>
+  </si>
+  <si>
     <t>Sem dados já inserido anteriormente</t>
   </si>
   <si>
-    <t>Apenas CadSUS sem ser início 7 e requisição já inserida anteriormente</t>
-  </si>
-  <si>
-    <t>Negativo no GAL sem negativo equivalente no Assessor nem suspeita em aberto</t>
-  </si>
-  <si>
-    <t>Negativo sem notificacoes no Assessor</t>
-  </si>
-  <si>
     <t>201410005926</t>
   </si>
   <si>
@@ -1690,6 +1684,9 @@
     <t>201410006180</t>
   </si>
   <si>
+    <t>201410006181</t>
+  </si>
+  <si>
     <t>201410006182</t>
   </si>
   <si>
@@ -2219,6 +2216,9 @@
   </si>
   <si>
     <t>RAFAEL SANTOS ORTALE DE CASTRO</t>
+  </si>
+  <si>
+    <t>JOANA DARC ALVES CAETANO</t>
   </si>
   <si>
     <t>RENATA GOMES DIAS</t>
@@ -4072,7 +4072,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4118,13 +4118,13 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F2" s="2">
         <v>44130.41055555556</v>
@@ -4136,13 +4136,13 @@
         <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4153,25 +4153,28 @@
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" t="s">
+        <v>301</v>
       </c>
       <c r="F3" s="2">
-        <v>44130.41479166667</v>
+        <v>44130.41762731481</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
         <v>60</v>
       </c>
-      <c r="I3" t="s">
-        <v>386</v>
-      </c>
       <c r="J3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4182,28 +4185,31 @@
         <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F4" s="2">
-        <v>44130.41762731481</v>
+        <v>44130.41902777777</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>372</v>
       </c>
       <c r="H4" t="s">
         <v>60</v>
       </c>
+      <c r="I4" t="s">
+        <v>384</v>
+      </c>
       <c r="J4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4214,31 +4220,28 @@
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F5" s="2">
-        <v>44130.41902777777</v>
+        <v>44130.42143518518</v>
       </c>
       <c r="G5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H5" t="s">
         <v>60</v>
       </c>
-      <c r="I5" t="s">
-        <v>386</v>
-      </c>
       <c r="J5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4249,28 +4252,28 @@
         <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F6" s="2">
-        <v>44130.42143518518</v>
+        <v>44130.42371527778</v>
       </c>
       <c r="G6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>382</v>
       </c>
       <c r="J6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4281,28 +4284,25 @@
         <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" t="s">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="F7" s="2">
-        <v>44130.42371527778</v>
+        <v>44130.42737268518</v>
       </c>
       <c r="G7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H7" t="s">
-        <v>384</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K7" t="s">
         <v>386</v>
-      </c>
-      <c r="K7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4313,25 +4313,31 @@
         <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="E8" t="s">
+        <v>305</v>
       </c>
       <c r="F8" s="2">
-        <v>44130.42737268518</v>
+        <v>44130.64170138889</v>
       </c>
       <c r="G8" t="s">
-        <v>375</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
         <v>60</v>
       </c>
+      <c r="I8" t="s">
+        <v>384</v>
+      </c>
       <c r="J8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K8" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4342,16 +4348,16 @@
         <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F9" s="2">
-        <v>44130.64170138889</v>
+        <v>44130.6434375</v>
       </c>
       <c r="G9" t="s">
         <v>59</v>
@@ -4360,13 +4366,13 @@
         <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4377,16 +4383,16 @@
         <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F10" s="2">
-        <v>44130.6434375</v>
+        <v>44130.64498842593</v>
       </c>
       <c r="G10" t="s">
         <v>59</v>
@@ -4395,13 +4401,13 @@
         <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4412,31 +4418,31 @@
         <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F11" s="2">
-        <v>44130.64498842593</v>
+        <v>44130.64818287037</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>374</v>
       </c>
       <c r="H11" t="s">
         <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4447,31 +4453,31 @@
         <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F12" s="2">
-        <v>44130.64818287037</v>
+        <v>44130.65004629629</v>
       </c>
       <c r="G12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H12" t="s">
         <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4482,31 +4488,31 @@
         <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F13" s="2">
-        <v>44130.65004629629</v>
+        <v>44130.65313657407</v>
       </c>
       <c r="G13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H13" t="s">
         <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4517,31 +4523,31 @@
         <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F14" s="2">
-        <v>44130.65313657407</v>
+        <v>44130.65461805555</v>
       </c>
       <c r="G14" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H14" t="s">
         <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4552,31 +4558,31 @@
         <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F15" s="2">
-        <v>44130.65461805555</v>
+        <v>44130.6565625</v>
       </c>
       <c r="G15" t="s">
-        <v>376</v>
+        <v>58</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -4587,31 +4593,31 @@
         <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F16" s="2">
-        <v>44130.6565625</v>
+        <v>44130.67121527778</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>376</v>
       </c>
       <c r="H16" t="s">
         <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J16" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4622,31 +4628,31 @@
         <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F17" s="2">
-        <v>44130.67121527778</v>
+        <v>44130.67274305555</v>
       </c>
       <c r="G17" t="s">
-        <v>378</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
         <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J17" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K17" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -4657,16 +4663,16 @@
         <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F18" s="2">
-        <v>44130.67274305555</v>
+        <v>44130.67952546296</v>
       </c>
       <c r="G18" t="s">
         <v>54</v>
@@ -4675,13 +4681,13 @@
         <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -4692,16 +4698,16 @@
         <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F19" s="2">
-        <v>44130.67952546296</v>
+        <v>44130.68114583333</v>
       </c>
       <c r="G19" t="s">
         <v>54</v>
@@ -4710,13 +4716,13 @@
         <v>60</v>
       </c>
       <c r="I19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4727,16 +4733,16 @@
         <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F20" s="2">
-        <v>44130.68114583333</v>
+        <v>44130.68309027778</v>
       </c>
       <c r="G20" t="s">
         <v>54</v>
@@ -4745,13 +4751,13 @@
         <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K20" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4762,16 +4768,16 @@
         <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F21" s="2">
-        <v>44130.68309027778</v>
+        <v>44130.68476851852</v>
       </c>
       <c r="G21" t="s">
         <v>54</v>
@@ -4780,13 +4786,13 @@
         <v>60</v>
       </c>
       <c r="I21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -4797,16 +4803,16 @@
         <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F22" s="2">
-        <v>44130.68476851852</v>
+        <v>44130.6866087963</v>
       </c>
       <c r="G22" t="s">
         <v>54</v>
@@ -4815,13 +4821,13 @@
         <v>60</v>
       </c>
       <c r="I22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K22" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4832,16 +4838,16 @@
         <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F23" s="2">
-        <v>44130.6866087963</v>
+        <v>44130.68988425926</v>
       </c>
       <c r="G23" t="s">
         <v>54</v>
@@ -4850,13 +4856,13 @@
         <v>60</v>
       </c>
       <c r="I23" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J23" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K23" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -4867,31 +4873,31 @@
         <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F24" s="2">
-        <v>44130.68988425926</v>
+        <v>44130.69325231481</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H24" t="s">
         <v>60</v>
       </c>
       <c r="I24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K24" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -4902,31 +4908,31 @@
         <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F25" s="2">
-        <v>44130.69325231481</v>
+        <v>44130.69627314815</v>
       </c>
       <c r="G25" t="s">
-        <v>55</v>
+        <v>377</v>
       </c>
       <c r="H25" t="s">
         <v>60</v>
       </c>
       <c r="I25" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J25" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K25" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4937,31 +4943,31 @@
         <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F26" s="2">
-        <v>44130.69627314815</v>
+        <v>44130.69791666666</v>
       </c>
       <c r="G26" t="s">
-        <v>379</v>
+        <v>56</v>
       </c>
       <c r="H26" t="s">
         <v>60</v>
       </c>
       <c r="I26" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J26" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K26" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -4972,16 +4978,16 @@
         <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F27" s="2">
-        <v>44130.69791666666</v>
+        <v>44130.70576388889</v>
       </c>
       <c r="G27" t="s">
         <v>56</v>
@@ -4990,10 +4996,10 @@
         <v>60</v>
       </c>
       <c r="I27" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J27" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K27" t="s">
         <v>387</v>
@@ -5007,16 +5013,16 @@
         <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F28" s="2">
-        <v>44130.70576388889</v>
+        <v>44130.71440972222</v>
       </c>
       <c r="G28" t="s">
         <v>56</v>
@@ -5025,13 +5031,13 @@
         <v>60</v>
       </c>
       <c r="I28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J28" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K28" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -5042,31 +5048,31 @@
         <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F29" s="2">
-        <v>44130.71440972222</v>
+        <v>44130.71613425926</v>
       </c>
       <c r="G29" t="s">
-        <v>56</v>
+        <v>378</v>
       </c>
       <c r="H29" t="s">
         <v>60</v>
       </c>
       <c r="I29" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J29" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K29" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -5077,31 +5083,31 @@
         <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F30" s="2">
-        <v>44130.71613425926</v>
+        <v>44130.71769675926</v>
       </c>
       <c r="G30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H30" t="s">
         <v>60</v>
       </c>
       <c r="I30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K30" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -5112,31 +5118,31 @@
         <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F31" s="2">
-        <v>44130.71769675926</v>
+        <v>44130.71943287037</v>
       </c>
       <c r="G31" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H31" t="s">
         <v>60</v>
       </c>
       <c r="I31" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J31" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K31" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -5147,31 +5153,28 @@
         <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D32" t="s">
-        <v>256</v>
-      </c>
-      <c r="E32" t="s">
-        <v>330</v>
+        <v>255</v>
       </c>
       <c r="F32" s="2">
-        <v>44130.71943287037</v>
+        <v>44130.72148148148</v>
       </c>
       <c r="G32" t="s">
-        <v>379</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
         <v>60</v>
       </c>
       <c r="I32" t="s">
+        <v>384</v>
+      </c>
+      <c r="J32" t="s">
+        <v>384</v>
+      </c>
+      <c r="K32" t="s">
         <v>386</v>
-      </c>
-      <c r="J32" t="s">
-        <v>386</v>
-      </c>
-      <c r="K32" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -5182,28 +5185,31 @@
         <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D33" t="s">
-        <v>257</v>
+        <v>256</v>
+      </c>
+      <c r="E33" t="s">
+        <v>329</v>
       </c>
       <c r="F33" s="2">
-        <v>44130.72148148148</v>
+        <v>44130.72496527778</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>379</v>
       </c>
       <c r="H33" t="s">
-        <v>60</v>
+        <v>383</v>
       </c>
       <c r="I33" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J33" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K33" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -5214,31 +5220,31 @@
         <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F34" s="2">
-        <v>44130.72496527778</v>
+        <v>44130.73364583333</v>
       </c>
       <c r="G34" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H34" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" t="s">
+        <v>384</v>
+      </c>
+      <c r="J34" t="s">
+        <v>384</v>
+      </c>
+      <c r="K34" t="s">
         <v>385</v>
-      </c>
-      <c r="I34" t="s">
-        <v>386</v>
-      </c>
-      <c r="J34" t="s">
-        <v>386</v>
-      </c>
-      <c r="K34" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -5249,31 +5255,31 @@
         <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F35" s="2">
-        <v>44130.73364583333</v>
+        <v>44130.73584490741</v>
       </c>
       <c r="G35" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H35" t="s">
         <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J35" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K35" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -5284,31 +5290,31 @@
         <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F36" s="2">
-        <v>44130.73584490741</v>
+        <v>44130.73762731482</v>
       </c>
       <c r="G36" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H36" t="s">
         <v>60</v>
       </c>
       <c r="I36" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J36" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K36" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -5319,31 +5325,31 @@
         <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F37" s="2">
-        <v>44130.73762731482</v>
+        <v>44131.34369212963</v>
       </c>
       <c r="G37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H37" t="s">
         <v>60</v>
       </c>
       <c r="I37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K37" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -5354,31 +5360,31 @@
         <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E38" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F38" s="2">
-        <v>44131.34369212963</v>
+        <v>44132.73863425926</v>
       </c>
       <c r="G38" t="s">
-        <v>382</v>
+        <v>54</v>
       </c>
       <c r="H38" t="s">
         <v>60</v>
       </c>
       <c r="I38" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J38" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K38" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -5389,31 +5395,31 @@
         <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F39" s="2">
-        <v>44132.73863425926</v>
+        <v>44132.74512731482</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H39" t="s">
         <v>60</v>
       </c>
       <c r="I39" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J39" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K39" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -5424,31 +5430,28 @@
         <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D40" t="s">
-        <v>264</v>
-      </c>
-      <c r="E40" t="s">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="F40" s="2">
-        <v>44132.74512731482</v>
+        <v>44132.7527662037</v>
       </c>
       <c r="G40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H40" t="s">
         <v>60</v>
       </c>
       <c r="I40" t="s">
+        <v>384</v>
+      </c>
+      <c r="J40" t="s">
+        <v>384</v>
+      </c>
+      <c r="K40" t="s">
         <v>386</v>
-      </c>
-      <c r="J40" t="s">
-        <v>386</v>
-      </c>
-      <c r="K40" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -5459,28 +5462,31 @@
         <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D41" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="E41" t="s">
+        <v>336</v>
       </c>
       <c r="F41" s="2">
-        <v>44132.7527662037</v>
+        <v>44132.76133101852</v>
       </c>
       <c r="G41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H41" t="s">
         <v>60</v>
       </c>
       <c r="I41" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J41" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K41" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -5491,31 +5497,31 @@
         <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F42" s="2">
-        <v>44132.76133101852</v>
+        <v>44132.76320601852</v>
       </c>
       <c r="G42" t="s">
-        <v>56</v>
+        <v>377</v>
       </c>
       <c r="H42" t="s">
         <v>60</v>
       </c>
       <c r="I42" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J42" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K42" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -5526,31 +5532,31 @@
         <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F43" s="2">
-        <v>44132.76320601852</v>
+        <v>44132.77012731481</v>
       </c>
       <c r="G43" t="s">
-        <v>379</v>
+        <v>54</v>
       </c>
       <c r="H43" t="s">
         <v>60</v>
       </c>
       <c r="I43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K43" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -5561,31 +5567,31 @@
         <v>105</v>
       </c>
       <c r="C44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F44" s="2">
-        <v>44132.77012731481</v>
+        <v>44132.77185185185</v>
       </c>
       <c r="G44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H44" t="s">
         <v>60</v>
       </c>
       <c r="I44" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J44" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K44" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -5596,31 +5602,31 @@
         <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F45" s="2">
-        <v>44132.77185185185</v>
+        <v>44132.78350694444</v>
       </c>
       <c r="G45" t="s">
-        <v>55</v>
+        <v>374</v>
       </c>
       <c r="H45" t="s">
         <v>60</v>
       </c>
       <c r="I45" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J45" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K45" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -5631,31 +5637,31 @@
         <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D46" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F46" s="2">
-        <v>44132.78350694444</v>
+        <v>44132.78811342592</v>
       </c>
       <c r="G46" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H46" t="s">
         <v>60</v>
       </c>
       <c r="I46" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J46" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K46" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -5666,31 +5672,28 @@
         <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F47" s="2">
-        <v>44132.78811342592</v>
+        <v>44133.37200231481</v>
       </c>
       <c r="G47" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="H47" t="s">
         <v>60</v>
       </c>
-      <c r="I47" t="s">
-        <v>386</v>
-      </c>
       <c r="J47" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K47" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -5701,28 +5704,22 @@
         <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>191</v>
-      </c>
-      <c r="D48" t="s">
-        <v>272</v>
-      </c>
-      <c r="E48" t="s">
-        <v>344</v>
+        <v>190</v>
       </c>
       <c r="F48" s="2">
-        <v>44133.37200231481</v>
+        <v>44133.37931712963</v>
       </c>
       <c r="G48" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H48" t="s">
         <v>60</v>
       </c>
       <c r="J48" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K48" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -5733,22 +5730,22 @@
         <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F49" s="2">
-        <v>44133.37931712963</v>
+        <v>44133.38173611111</v>
       </c>
       <c r="G49" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H49" t="s">
         <v>60</v>
       </c>
       <c r="J49" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K49" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -5759,22 +5756,31 @@
         <v>111</v>
       </c>
       <c r="C50" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="D50" t="s">
+        <v>271</v>
+      </c>
+      <c r="E50" t="s">
+        <v>343</v>
       </c>
       <c r="F50" s="2">
-        <v>44133.38173611111</v>
+        <v>44133.68376157407</v>
       </c>
       <c r="G50" t="s">
-        <v>375</v>
+        <v>59</v>
       </c>
       <c r="H50" t="s">
         <v>60</v>
       </c>
+      <c r="I50" t="s">
+        <v>384</v>
+      </c>
       <c r="J50" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K50" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -5785,16 +5791,16 @@
         <v>112</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E51" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F51" s="2">
-        <v>44133.68376157407</v>
+        <v>44133.68530092593</v>
       </c>
       <c r="G51" t="s">
         <v>59</v>
@@ -5803,13 +5809,13 @@
         <v>60</v>
       </c>
       <c r="I51" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J51" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K51" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -5820,31 +5826,31 @@
         <v>113</v>
       </c>
       <c r="C52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E52" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F52" s="2">
-        <v>44133.68530092593</v>
+        <v>44133.68915509259</v>
       </c>
       <c r="G52" t="s">
-        <v>59</v>
+        <v>374</v>
       </c>
       <c r="H52" t="s">
         <v>60</v>
       </c>
       <c r="I52" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J52" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K52" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -5855,31 +5861,31 @@
         <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F53" s="2">
-        <v>44133.68915509259</v>
+        <v>44133.69238425926</v>
       </c>
       <c r="G53" t="s">
-        <v>376</v>
+        <v>57</v>
       </c>
       <c r="H53" t="s">
         <v>60</v>
       </c>
       <c r="I53" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J53" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K53" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -5890,16 +5896,16 @@
         <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D54" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E54" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F54" s="2">
-        <v>44133.69238425926</v>
+        <v>44133.69767361111</v>
       </c>
       <c r="G54" t="s">
         <v>57</v>
@@ -5907,14 +5913,11 @@
       <c r="H54" t="s">
         <v>60</v>
       </c>
-      <c r="I54" t="s">
-        <v>386</v>
-      </c>
       <c r="J54" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K54" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -5925,16 +5928,16 @@
         <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D55" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F55" s="2">
-        <v>44133.69767361111</v>
+        <v>44133.69929398148</v>
       </c>
       <c r="G55" t="s">
         <v>57</v>
@@ -5942,11 +5945,14 @@
       <c r="H55" t="s">
         <v>60</v>
       </c>
+      <c r="I55" t="s">
+        <v>384</v>
+      </c>
       <c r="J55" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K55" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -5957,31 +5963,31 @@
         <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E56" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F56" s="2">
-        <v>44133.69929398148</v>
+        <v>44133.7025462963</v>
       </c>
       <c r="G56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H56" t="s">
         <v>60</v>
       </c>
       <c r="I56" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J56" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K56" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -5992,16 +5998,16 @@
         <v>118</v>
       </c>
       <c r="C57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D57" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E57" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F57" s="2">
-        <v>44133.7025462963</v>
+        <v>44133.70619212963</v>
       </c>
       <c r="G57" t="s">
         <v>56</v>
@@ -6010,13 +6016,13 @@
         <v>60</v>
       </c>
       <c r="I57" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J57" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K57" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -6027,16 +6033,10 @@
         <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" t="s">
-        <v>280</v>
-      </c>
-      <c r="E58" t="s">
-        <v>352</v>
+        <v>200</v>
       </c>
       <c r="F58" s="2">
-        <v>44133.70619212963</v>
+        <v>44133.70991898148</v>
       </c>
       <c r="G58" t="s">
         <v>56</v>
@@ -6045,13 +6045,13 @@
         <v>60</v>
       </c>
       <c r="I58" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J58" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K58" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -6062,10 +6062,10 @@
         <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F59" s="2">
-        <v>44133.70991898148</v>
+        <v>44133.72943287037</v>
       </c>
       <c r="G59" t="s">
         <v>56</v>
@@ -6074,13 +6074,13 @@
         <v>60</v>
       </c>
       <c r="I59" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J59" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K59" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -6091,10 +6091,16 @@
         <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="D60" t="s">
+        <v>279</v>
+      </c>
+      <c r="E60" t="s">
+        <v>351</v>
       </c>
       <c r="F60" s="2">
-        <v>44133.72943287037</v>
+        <v>44133.73108796297</v>
       </c>
       <c r="G60" t="s">
         <v>56</v>
@@ -6103,10 +6109,10 @@
         <v>60</v>
       </c>
       <c r="I60" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J60" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K60" t="s">
         <v>388</v>
@@ -6120,16 +6126,16 @@
         <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D61" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E61" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F61" s="2">
-        <v>44133.73108796297</v>
+        <v>44133.73280092593</v>
       </c>
       <c r="G61" t="s">
         <v>56</v>
@@ -6138,13 +6144,13 @@
         <v>60</v>
       </c>
       <c r="I61" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J61" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K61" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -6155,16 +6161,16 @@
         <v>123</v>
       </c>
       <c r="C62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D62" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E62" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F62" s="2">
-        <v>44133.73280092593</v>
+        <v>44133.7349537037</v>
       </c>
       <c r="G62" t="s">
         <v>56</v>
@@ -6173,13 +6179,13 @@
         <v>60</v>
       </c>
       <c r="I62" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J62" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K62" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -6190,16 +6196,16 @@
         <v>124</v>
       </c>
       <c r="C63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D63" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E63" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F63" s="2">
-        <v>44133.7349537037</v>
+        <v>44133.73690972223</v>
       </c>
       <c r="G63" t="s">
         <v>56</v>
@@ -6208,13 +6214,13 @@
         <v>60</v>
       </c>
       <c r="I63" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J63" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K63" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -6225,31 +6231,31 @@
         <v>125</v>
       </c>
       <c r="C64" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D64" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E64" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F64" s="2">
-        <v>44133.73690972223</v>
+        <v>44133.73903935185</v>
       </c>
       <c r="G64" t="s">
-        <v>56</v>
+        <v>376</v>
       </c>
       <c r="H64" t="s">
         <v>60</v>
       </c>
       <c r="I64" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J64" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K64" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -6260,31 +6266,31 @@
         <v>126</v>
       </c>
       <c r="C65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E65" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F65" s="2">
-        <v>44133.73903935185</v>
+        <v>44133.74105324074</v>
       </c>
       <c r="G65" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H65" t="s">
         <v>60</v>
       </c>
       <c r="I65" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J65" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K65" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -6295,31 +6301,31 @@
         <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E66" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F66" s="2">
-        <v>44133.74105324074</v>
+        <v>44133.74943287037</v>
       </c>
       <c r="G66" t="s">
-        <v>378</v>
+        <v>54</v>
       </c>
       <c r="H66" t="s">
         <v>60</v>
       </c>
       <c r="I66" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J66" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K66" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -6330,16 +6336,16 @@
         <v>128</v>
       </c>
       <c r="C67" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E67" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F67" s="2">
-        <v>44133.74943287037</v>
+        <v>44133.75266203703</v>
       </c>
       <c r="G67" t="s">
         <v>54</v>
@@ -6348,13 +6354,13 @@
         <v>60</v>
       </c>
       <c r="I67" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J67" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K67" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -6365,16 +6371,16 @@
         <v>129</v>
       </c>
       <c r="C68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E68" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F68" s="2">
-        <v>44133.75266203703</v>
+        <v>44133.75657407408</v>
       </c>
       <c r="G68" t="s">
         <v>54</v>
@@ -6383,13 +6389,13 @@
         <v>60</v>
       </c>
       <c r="I68" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J68" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K68" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -6400,16 +6406,16 @@
         <v>130</v>
       </c>
       <c r="C69" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D69" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E69" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F69" s="2">
-        <v>44133.75657407408</v>
+        <v>44133.75828703704</v>
       </c>
       <c r="G69" t="s">
         <v>54</v>
@@ -6418,13 +6424,13 @@
         <v>60</v>
       </c>
       <c r="I69" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J69" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K69" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -6435,31 +6441,31 @@
         <v>131</v>
       </c>
       <c r="C70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D70" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E70" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F70" s="2">
-        <v>44133.75828703704</v>
+        <v>44133.75993055556</v>
       </c>
       <c r="G70" t="s">
-        <v>54</v>
+        <v>377</v>
       </c>
       <c r="H70" t="s">
         <v>60</v>
       </c>
       <c r="I70" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J70" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K70" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -6470,31 +6476,31 @@
         <v>132</v>
       </c>
       <c r="C71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E71" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F71" s="2">
-        <v>44133.75993055556</v>
+        <v>44133.76315972222</v>
       </c>
       <c r="G71" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H71" t="s">
         <v>60</v>
       </c>
       <c r="I71" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J71" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K71" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -6505,31 +6511,31 @@
         <v>133</v>
       </c>
       <c r="C72" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E72" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F72" s="2">
-        <v>44133.76315972222</v>
+        <v>44133.76483796296</v>
       </c>
       <c r="G72" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H72" t="s">
         <v>60</v>
       </c>
       <c r="I72" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J72" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K72" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -6540,31 +6546,31 @@
         <v>134</v>
       </c>
       <c r="C73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E73" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F73" s="2">
-        <v>44133.76483796296</v>
+        <v>44137.34195601852</v>
       </c>
       <c r="G73" t="s">
-        <v>377</v>
+        <v>59</v>
       </c>
       <c r="H73" t="s">
         <v>60</v>
       </c>
       <c r="I73" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J73" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K73" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -6575,31 +6581,31 @@
         <v>135</v>
       </c>
       <c r="C74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E74" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F74" s="2">
-        <v>44137.34195601852</v>
+        <v>44137.34818287037</v>
       </c>
       <c r="G74" t="s">
-        <v>59</v>
+        <v>379</v>
       </c>
       <c r="H74" t="s">
         <v>60</v>
       </c>
       <c r="I74" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J74" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K74" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -6610,31 +6616,31 @@
         <v>136</v>
       </c>
       <c r="C75" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F75" s="2">
-        <v>44137.34818287037</v>
+        <v>44137.3515162037</v>
       </c>
       <c r="G75" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="H75" t="s">
         <v>60</v>
       </c>
       <c r="I75" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J75" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K75" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -6645,31 +6651,31 @@
         <v>137</v>
       </c>
       <c r="C76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E76" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F76" s="2">
-        <v>44137.3515162037</v>
+        <v>44137.35383101852</v>
       </c>
       <c r="G76" t="s">
-        <v>376</v>
+        <v>55</v>
       </c>
       <c r="H76" t="s">
         <v>60</v>
       </c>
       <c r="I76" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J76" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K76" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -6680,16 +6686,16 @@
         <v>138</v>
       </c>
       <c r="C77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E77" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F77" s="2">
-        <v>44137.35383101852</v>
+        <v>44137.35585648148</v>
       </c>
       <c r="G77" t="s">
         <v>55</v>
@@ -6698,13 +6704,13 @@
         <v>60</v>
       </c>
       <c r="I77" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J77" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K77" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -6715,31 +6721,31 @@
         <v>139</v>
       </c>
       <c r="C78" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E78" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F78" s="2">
-        <v>44137.35585648148</v>
+        <v>44137.36046296296</v>
       </c>
       <c r="G78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H78" t="s">
         <v>60</v>
       </c>
       <c r="I78" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J78" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K78" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -6750,16 +6756,16 @@
         <v>140</v>
       </c>
       <c r="C79" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D79" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E79" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F79" s="2">
-        <v>44137.36046296296</v>
+        <v>44138.36393518518</v>
       </c>
       <c r="G79" t="s">
         <v>56</v>
@@ -6768,13 +6774,13 @@
         <v>60</v>
       </c>
       <c r="I79" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J79" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K79" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -6785,31 +6791,25 @@
         <v>141</v>
       </c>
       <c r="C80" t="s">
-        <v>223</v>
-      </c>
-      <c r="D80" t="s">
-        <v>300</v>
-      </c>
-      <c r="E80" t="s">
-        <v>372</v>
+        <v>222</v>
       </c>
       <c r="F80" s="2">
-        <v>44138.36393518518</v>
+        <v>44138.36953703704</v>
       </c>
       <c r="G80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H80" t="s">
         <v>60</v>
       </c>
       <c r="I80" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J80" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K80" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -6820,22 +6820,25 @@
         <v>142</v>
       </c>
       <c r="C81" t="s">
-        <v>224</v>
+        <v>223</v>
+      </c>
+      <c r="D81" t="s">
+        <v>299</v>
+      </c>
+      <c r="E81" t="s">
+        <v>371</v>
       </c>
       <c r="F81" s="2">
-        <v>44138.36953703704</v>
+        <v>44138.71462962963</v>
       </c>
       <c r="G81" t="s">
-        <v>55</v>
+        <v>373</v>
       </c>
       <c r="H81" t="s">
         <v>60</v>
       </c>
-      <c r="I81" t="s">
-        <v>386</v>
-      </c>
       <c r="J81" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K81" t="s">
         <v>388</v>
@@ -6849,54 +6852,22 @@
         <v>143</v>
       </c>
       <c r="C82" t="s">
-        <v>225</v>
-      </c>
-      <c r="D82" t="s">
-        <v>301</v>
-      </c>
-      <c r="E82" t="s">
+        <v>224</v>
+      </c>
+      <c r="F82" s="2">
+        <v>44138.72060185186</v>
+      </c>
+      <c r="G82" t="s">
         <v>373</v>
       </c>
-      <c r="F82" s="2">
-        <v>44138.71462962963</v>
-      </c>
-      <c r="G82" t="s">
-        <v>375</v>
-      </c>
       <c r="H82" t="s">
         <v>60</v>
       </c>
       <c r="J82" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K82" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>144</v>
-      </c>
-      <c r="C83" t="s">
-        <v>226</v>
-      </c>
-      <c r="F83" s="2">
-        <v>44138.72060185186</v>
-      </c>
-      <c r="G83" t="s">
-        <v>375</v>
-      </c>
-      <c r="H83" t="s">
-        <v>60</v>
-      </c>
-      <c r="J83" t="s">
-        <v>386</v>
-      </c>
-      <c r="K83" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -6906,7 +6877,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K178"/>
+  <dimension ref="A1:K179"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6949,10 +6920,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D2" t="s">
         <v>746</v>
@@ -6978,10 +6949,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D3" t="s">
         <v>747</v>
@@ -7007,10 +6978,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D4" t="s">
         <v>748</v>
@@ -7022,7 +6993,7 @@
         <v>44131.65446759259</v>
       </c>
       <c r="G4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H4" t="s">
         <v>60</v>
@@ -7036,10 +7007,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D5" t="s">
         <v>749</v>
@@ -7051,7 +7022,7 @@
         <v>44131.68966435185</v>
       </c>
       <c r="G5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H5" t="s">
         <v>60</v>
@@ -7065,10 +7036,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D6" t="s">
         <v>750</v>
@@ -7080,7 +7051,7 @@
         <v>44131.69133101852</v>
       </c>
       <c r="G6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H6" t="s">
         <v>60</v>
@@ -7094,10 +7065,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D7" t="s">
         <v>751</v>
@@ -7123,10 +7094,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D8" t="s">
         <v>752</v>
@@ -7152,10 +7123,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D9" t="s">
         <v>753</v>
@@ -7181,10 +7152,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D10" t="s">
         <v>754</v>
@@ -7210,10 +7181,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D11" t="s">
         <v>755</v>
@@ -7239,10 +7210,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D12" t="s">
         <v>756</v>
@@ -7268,10 +7239,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D13" t="s">
         <v>757</v>
@@ -7297,10 +7268,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D14" t="s">
         <v>758</v>
@@ -7326,10 +7297,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D15" t="s">
         <v>759</v>
@@ -7355,10 +7326,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D16" t="s">
         <v>760</v>
@@ -7384,10 +7355,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C17" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D17" t="s">
         <v>761</v>
@@ -7399,7 +7370,7 @@
         <v>44131.71634259259</v>
       </c>
       <c r="G17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H17" t="s">
         <v>60</v>
@@ -7413,10 +7384,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C18" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D18" t="s">
         <v>762</v>
@@ -7428,7 +7399,7 @@
         <v>44131.71807870371</v>
       </c>
       <c r="G18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H18" t="s">
         <v>60</v>
@@ -7442,10 +7413,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C19" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D19" t="s">
         <v>763</v>
@@ -7471,10 +7442,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C20" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D20" t="s">
         <v>764</v>
@@ -7500,10 +7471,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D21" t="s">
         <v>765</v>
@@ -7529,10 +7500,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D22" t="s">
         <v>766</v>
@@ -7558,10 +7529,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D23" t="s">
         <v>767</v>
@@ -7587,10 +7558,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C24" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D24" t="s">
         <v>768</v>
@@ -7616,10 +7587,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F25" s="2">
         <v>44137.61560185185</v>
@@ -7631,7 +7602,7 @@
         <v>60</v>
       </c>
       <c r="K25" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -7639,10 +7610,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D26" t="s">
         <v>769</v>
@@ -7657,7 +7628,7 @@
         <v>60</v>
       </c>
       <c r="K26" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -7665,10 +7636,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C27" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D27" t="s">
         <v>770</v>
@@ -7683,7 +7654,7 @@
         <v>60</v>
       </c>
       <c r="K27" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -7691,10 +7662,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D28" t="s">
         <v>771</v>
@@ -7720,10 +7691,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C29" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D29" t="s">
         <v>772</v>
@@ -7749,10 +7720,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C30" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D30" t="s">
         <v>773</v>
@@ -7778,10 +7749,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C31" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D31" t="s">
         <v>774</v>
@@ -7807,10 +7778,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C32" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D32" t="s">
         <v>775</v>
@@ -7836,10 +7807,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C33" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D33" t="s">
         <v>776</v>
@@ -7865,10 +7836,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C34" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D34" t="s">
         <v>777</v>
@@ -7894,10 +7865,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D35" t="s">
         <v>778</v>
@@ -7923,10 +7894,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C36" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D36" t="s">
         <v>779</v>
@@ -7952,10 +7923,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C37" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D37" t="s">
         <v>780</v>
@@ -7981,10 +7952,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C38" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D38" t="s">
         <v>781</v>
@@ -8010,10 +7981,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C39" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D39" t="s">
         <v>782</v>
@@ -8039,10 +8010,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C40" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D40" t="s">
         <v>783</v>
@@ -8068,10 +8039,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C41" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D41" t="s">
         <v>784</v>
@@ -8097,10 +8068,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C42" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D42" t="s">
         <v>785</v>
@@ -8126,10 +8097,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C43" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D43" t="s">
         <v>786</v>
@@ -8155,10 +8126,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C44" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D44" t="s">
         <v>787</v>
@@ -8184,10 +8155,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C45" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D45" t="s">
         <v>788</v>
@@ -8213,10 +8184,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C46" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D46" t="s">
         <v>789</v>
@@ -8242,10 +8213,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C47" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D47" t="s">
         <v>790</v>
@@ -8271,10 +8242,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C48" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D48" t="s">
         <v>791</v>
@@ -8300,10 +8271,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C49" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D49" t="s">
         <v>792</v>
@@ -8329,10 +8300,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C50" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D50" t="s">
         <v>793</v>
@@ -8358,10 +8329,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C51" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D51" t="s">
         <v>794</v>
@@ -8387,10 +8358,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C52" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D52" t="s">
         <v>795</v>
@@ -8416,10 +8387,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C53" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D53" t="s">
         <v>796</v>
@@ -8445,10 +8416,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C54" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D54" t="s">
         <v>797</v>
@@ -8474,10 +8445,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C55" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D55" t="s">
         <v>798</v>
@@ -8503,10 +8474,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C56" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D56" t="s">
         <v>799</v>
@@ -8532,10 +8503,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C57" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D57" t="s">
         <v>800</v>
@@ -8561,10 +8532,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C58" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D58" t="s">
         <v>801</v>
@@ -8590,10 +8561,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C59" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D59" t="s">
         <v>802</v>
@@ -8619,10 +8590,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C60" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D60" t="s">
         <v>803</v>
@@ -8648,10 +8619,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C61" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D61" t="s">
         <v>804</v>
@@ -8677,10 +8648,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C62" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D62" t="s">
         <v>805</v>
@@ -8706,10 +8677,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C63" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D63" t="s">
         <v>806</v>
@@ -8735,10 +8706,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C64" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D64" t="s">
         <v>807</v>
@@ -8764,10 +8735,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C65" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D65" t="s">
         <v>808</v>
@@ -8793,10 +8764,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C66" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D66" t="s">
         <v>809</v>
@@ -8822,10 +8793,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C67" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D67" t="s">
         <v>810</v>
@@ -8851,10 +8822,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C68" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D68" t="s">
         <v>811</v>
@@ -8880,10 +8851,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C69" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D69" t="s">
         <v>812</v>
@@ -8909,10 +8880,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C70" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D70" t="s">
         <v>813</v>
@@ -8938,10 +8909,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C71" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D71" t="s">
         <v>814</v>
@@ -8967,10 +8938,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C72" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D72" t="s">
         <v>815</v>
@@ -8996,10 +8967,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C73" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D73" t="s">
         <v>816</v>
@@ -9025,10 +8996,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C74" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D74" t="s">
         <v>817</v>
@@ -9054,10 +9025,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C75" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D75" t="s">
         <v>818</v>
@@ -9083,10 +9054,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C76" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D76" t="s">
         <v>819</v>
@@ -9112,10 +9083,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C77" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D77" t="s">
         <v>820</v>
@@ -9141,10 +9112,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C78" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D78" t="s">
         <v>821</v>
@@ -9170,10 +9141,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C79" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D79" t="s">
         <v>822</v>
@@ -9199,10 +9170,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C80" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D80" t="s">
         <v>823</v>
@@ -9228,10 +9199,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C81" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D81" t="s">
         <v>824</v>
@@ -9257,10 +9228,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C82" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D82" t="s">
         <v>825</v>
@@ -9286,10 +9257,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C83" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D83" t="s">
         <v>826</v>
@@ -9315,10 +9286,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C84" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D84" t="s">
         <v>827</v>
@@ -9344,10 +9315,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C85" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D85" t="s">
         <v>828</v>
@@ -9373,10 +9344,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C86" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D86" t="s">
         <v>829</v>
@@ -9402,10 +9373,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C87" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D87" t="s">
         <v>830</v>
@@ -9431,10 +9402,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C88" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D88" t="s">
         <v>831</v>
@@ -9460,10 +9431,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C89" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D89" t="s">
         <v>832</v>
@@ -9489,10 +9460,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C90" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D90" t="s">
         <v>833</v>
@@ -9518,10 +9489,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C91" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D91" t="s">
         <v>834</v>
@@ -9547,10 +9518,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C92" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D92" t="s">
         <v>835</v>
@@ -9576,10 +9547,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C93" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D93" t="s">
         <v>836</v>
@@ -9605,10 +9576,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D94" t="s">
         <v>837</v>
@@ -9634,10 +9605,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C95" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D95" t="s">
         <v>838</v>
@@ -9663,10 +9634,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C96" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D96" t="s">
         <v>839</v>
@@ -9692,10 +9663,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C97" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D97" t="s">
         <v>840</v>
@@ -9721,10 +9692,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C98" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D98" t="s">
         <v>841</v>
@@ -9750,10 +9721,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C99" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D99" t="s">
         <v>842</v>
@@ -9779,10 +9750,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C100" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D100" t="s">
         <v>843</v>
@@ -9808,10 +9779,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C101" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D101" t="s">
         <v>844</v>
@@ -9837,10 +9808,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C102" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D102" t="s">
         <v>845</v>
@@ -9866,10 +9837,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C103" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D103" t="s">
         <v>846</v>
@@ -9895,10 +9866,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C104" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D104" t="s">
         <v>847</v>
@@ -9924,10 +9895,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C105" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D105" t="s">
         <v>848</v>
@@ -9939,7 +9910,7 @@
         <v>44138.6640162037</v>
       </c>
       <c r="G105" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H105" t="s">
         <v>60</v>
@@ -9953,10 +9924,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C106" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D106" t="s">
         <v>849</v>
@@ -9968,7 +9939,7 @@
         <v>44138.66552083333</v>
       </c>
       <c r="G106" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H106" t="s">
         <v>60</v>
@@ -9982,10 +9953,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C107" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D107" t="s">
         <v>850</v>
@@ -9997,7 +9968,7 @@
         <v>44138.66704861111</v>
       </c>
       <c r="G107" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H107" t="s">
         <v>60</v>
@@ -10011,10 +9982,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C108" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D108" t="s">
         <v>851</v>
@@ -10040,10 +10011,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C109" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D109" t="s">
         <v>852</v>
@@ -10055,7 +10026,7 @@
         <v>44138.67144675926</v>
       </c>
       <c r="G109" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H109" t="s">
         <v>60</v>
@@ -10069,10 +10040,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C110" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D110" t="s">
         <v>853</v>
@@ -10098,10 +10069,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C111" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F111" s="2">
         <v>44138.67798611111</v>
@@ -10113,7 +10084,7 @@
         <v>60</v>
       </c>
       <c r="K111" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -10121,10 +10092,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C112" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D112" t="s">
         <v>854</v>
@@ -10139,7 +10110,7 @@
         <v>60</v>
       </c>
       <c r="K112" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -10147,10 +10118,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C113" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D113" t="s">
         <v>855</v>
@@ -10176,10 +10147,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C114" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D114" t="s">
         <v>856</v>
@@ -10194,7 +10165,7 @@
         <v>60</v>
       </c>
       <c r="K114" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -10202,10 +10173,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C115" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F115" s="2">
         <v>44138.68648148148</v>
@@ -10217,7 +10188,7 @@
         <v>1085</v>
       </c>
       <c r="K115" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -10225,10 +10196,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C116" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D116" t="s">
         <v>857</v>
@@ -10240,7 +10211,7 @@
         <v>44138.68899305556</v>
       </c>
       <c r="G116" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H116" t="s">
         <v>60</v>
@@ -10254,10 +10225,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C117" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D117" t="s">
         <v>858</v>
@@ -10269,7 +10240,7 @@
         <v>44138.69043981482</v>
       </c>
       <c r="G117" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H117" t="s">
         <v>60</v>
@@ -10283,10 +10254,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C118" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D118" t="s">
         <v>859</v>
@@ -10298,7 +10269,7 @@
         <v>44138.69197916667</v>
       </c>
       <c r="G118" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H118" t="s">
         <v>60</v>
@@ -10312,10 +10283,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C119" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D119" t="s">
         <v>860</v>
@@ -10327,7 +10298,7 @@
         <v>44138.69366898148</v>
       </c>
       <c r="G119" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H119" t="s">
         <v>60</v>
@@ -10341,10 +10312,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C120" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D120" t="s">
         <v>861</v>
@@ -10370,10 +10341,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C121" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D121" t="s">
         <v>862</v>
@@ -10385,7 +10356,7 @@
         <v>44138.69966435185</v>
       </c>
       <c r="G121" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H121" t="s">
         <v>60</v>
@@ -10399,10 +10370,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C122" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D122" t="s">
         <v>863</v>
@@ -10414,7 +10385,7 @@
         <v>44138.70159722222</v>
       </c>
       <c r="G122" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H122" t="s">
         <v>60</v>
@@ -10428,10 +10399,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C123" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D123" t="s">
         <v>864</v>
@@ -10457,10 +10428,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C124" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D124" t="s">
         <v>865</v>
@@ -10486,10 +10457,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C125" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D125" t="s">
         <v>866</v>
@@ -10515,10 +10486,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C126" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D126" t="s">
         <v>867</v>
@@ -10544,10 +10515,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C127" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D127" t="s">
         <v>868</v>
@@ -10573,10 +10544,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C128" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D128" t="s">
         <v>869</v>
@@ -10602,10 +10573,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C129" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D129" t="s">
         <v>870</v>
@@ -10631,10 +10602,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C130" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F130" s="2">
         <v>44139.69744212963</v>
@@ -10646,7 +10617,7 @@
         <v>60</v>
       </c>
       <c r="K130" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -10654,10 +10625,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C131" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D131" t="s">
         <v>871</v>
@@ -10683,10 +10654,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C132" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D132" t="s">
         <v>872</v>
@@ -10712,10 +10683,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C133" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D133" t="s">
         <v>873</v>
@@ -10727,7 +10698,7 @@
         <v>44139.70667824074</v>
       </c>
       <c r="G133" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H133" t="s">
         <v>60</v>
@@ -10741,10 +10712,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C134" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D134" t="s">
         <v>874</v>
@@ -10770,10 +10741,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C135" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D135" t="s">
         <v>875</v>
@@ -10785,7 +10756,7 @@
         <v>44139.71019675926</v>
       </c>
       <c r="G135" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H135" t="s">
         <v>60</v>
@@ -10799,10 +10770,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C136" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D136" t="s">
         <v>876</v>
@@ -10814,7 +10785,7 @@
         <v>44139.71186342592</v>
       </c>
       <c r="G136" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H136" t="s">
         <v>60</v>
@@ -10828,10 +10799,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C137" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D137" t="s">
         <v>877</v>
@@ -10843,7 +10814,7 @@
         <v>44139.71333333333</v>
       </c>
       <c r="G137" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H137" t="s">
         <v>60</v>
@@ -10857,10 +10828,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C138" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D138" t="s">
         <v>878</v>
@@ -10872,7 +10843,7 @@
         <v>44139.7152199074</v>
       </c>
       <c r="G138" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H138" t="s">
         <v>60</v>
@@ -10886,10 +10857,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C139" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D139" t="s">
         <v>879</v>
@@ -10901,7 +10872,7 @@
         <v>44139.72135416666</v>
       </c>
       <c r="G139" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H139" t="s">
         <v>60</v>
@@ -10915,10 +10886,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C140" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D140" t="s">
         <v>880</v>
@@ -10930,7 +10901,7 @@
         <v>44139.72697916667</v>
       </c>
       <c r="G140" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H140" t="s">
         <v>60</v>
@@ -10944,10 +10915,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C141" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D141" t="s">
         <v>881</v>
@@ -10959,7 +10930,7 @@
         <v>44139.72891203704</v>
       </c>
       <c r="G141" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H141" t="s">
         <v>60</v>
@@ -10973,10 +10944,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C142" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D142" t="s">
         <v>882</v>
@@ -11002,10 +10973,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C143" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D143" t="s">
         <v>883</v>
@@ -11031,10 +11002,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C144" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D144" t="s">
         <v>884</v>
@@ -11049,7 +11020,7 @@
         <v>60</v>
       </c>
       <c r="K144" t="s">
-        <v>1086</v>
+        <v>386</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -11057,10 +11028,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C145" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D145" t="s">
         <v>885</v>
@@ -11086,10 +11057,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C146" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D146" t="s">
         <v>886</v>
@@ -11115,10 +11086,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C147" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D147" t="s">
         <v>887</v>
@@ -11144,10 +11115,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C148" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D148" t="s">
         <v>888</v>
@@ -11162,7 +11133,7 @@
         <v>60</v>
       </c>
       <c r="K148" t="s">
-        <v>1086</v>
+        <v>386</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -11170,10 +11141,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C149" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D149" t="s">
         <v>889</v>
@@ -11199,10 +11170,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C150" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D150" t="s">
         <v>890</v>
@@ -11228,10 +11199,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C151" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D151" t="s">
         <v>891</v>
@@ -11257,10 +11228,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C152" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D152" t="s">
         <v>892</v>
@@ -11286,10 +11257,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C153" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D153" t="s">
         <v>893</v>
@@ -11315,10 +11286,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C154" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D154" t="s">
         <v>894</v>
@@ -11344,10 +11315,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C155" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D155" t="s">
         <v>895</v>
@@ -11373,10 +11344,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C156" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D156" t="s">
         <v>896</v>
@@ -11388,7 +11359,7 @@
         <v>44139.75603009259</v>
       </c>
       <c r="G156" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H156" t="s">
         <v>60</v>
@@ -11402,10 +11373,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C157" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D157" t="s">
         <v>897</v>
@@ -11417,7 +11388,7 @@
         <v>44139.75784722222</v>
       </c>
       <c r="G157" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H157" t="s">
         <v>60</v>
@@ -11431,10 +11402,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C158" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D158" t="s">
         <v>898</v>
@@ -11446,7 +11417,7 @@
         <v>44139.75994212963</v>
       </c>
       <c r="G158" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H158" t="s">
         <v>60</v>
@@ -11460,10 +11431,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C159" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D159" t="s">
         <v>899</v>
@@ -11475,7 +11446,7 @@
         <v>44139.76241898148</v>
       </c>
       <c r="G159" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H159" t="s">
         <v>60</v>
@@ -11489,10 +11460,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C160" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D160" t="s">
         <v>900</v>
@@ -11504,7 +11475,7 @@
         <v>44139.76762731482</v>
       </c>
       <c r="G160" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H160" t="s">
         <v>60</v>
@@ -11518,10 +11489,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C161" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D161" t="s">
         <v>901</v>
@@ -11547,10 +11518,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C162" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D162" t="s">
         <v>902</v>
@@ -11565,7 +11536,7 @@
         <v>60</v>
       </c>
       <c r="K162" t="s">
-        <v>1086</v>
+        <v>386</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -11573,10 +11544,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C163" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D163" t="s">
         <v>903</v>
@@ -11602,10 +11573,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C164" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D164" t="s">
         <v>904</v>
@@ -11631,10 +11602,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C165" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D165" t="s">
         <v>905</v>
@@ -11660,10 +11631,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C166" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D166" t="s">
         <v>906</v>
@@ -11689,19 +11660,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C167" t="s">
-        <v>734</v>
-      </c>
-      <c r="D167" t="s">
-        <v>907</v>
-      </c>
-      <c r="E167" t="s">
-        <v>1073</v>
+        <v>733</v>
       </c>
       <c r="F167" s="2">
-        <v>44140.68638888889</v>
+        <v>44140.68453703704</v>
       </c>
       <c r="G167" t="s">
         <v>56</v>
@@ -11710,7 +11675,7 @@
         <v>60</v>
       </c>
       <c r="K167" t="s">
-        <v>1086</v>
+        <v>389</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -11718,22 +11683,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C168" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D168" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E168" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F168" s="2">
-        <v>44140.68771990741</v>
+        <v>44140.68638888889</v>
       </c>
       <c r="G168" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H168" t="s">
         <v>60</v>
@@ -11747,19 +11712,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C169" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D169" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E169" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F169" s="2">
-        <v>44140.68909722222</v>
+        <v>44140.68771990741</v>
       </c>
       <c r="G169" t="s">
         <v>54</v>
@@ -11776,22 +11741,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C170" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D170" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E170" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F170" s="2">
-        <v>44140.69099537037</v>
+        <v>44140.68909722222</v>
       </c>
       <c r="G170" t="s">
-        <v>379</v>
+        <v>54</v>
       </c>
       <c r="H170" t="s">
         <v>60</v>
@@ -11805,22 +11770,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C171" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D171" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E171" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F171" s="2">
-        <v>44140.69246527777</v>
+        <v>44140.69099537037</v>
       </c>
       <c r="G171" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H171" t="s">
         <v>60</v>
@@ -11834,19 +11799,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C172" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D172" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E172" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F172" s="2">
-        <v>44140.69401620371</v>
+        <v>44140.69246527777</v>
       </c>
       <c r="G172" t="s">
         <v>377</v>
@@ -11863,22 +11828,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C173" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D173" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E173" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F173" s="2">
-        <v>44140.69738425926</v>
+        <v>44140.69401620371</v>
       </c>
       <c r="G173" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H173" t="s">
         <v>60</v>
@@ -11892,22 +11857,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C174" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D174" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E174" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F174" s="2">
-        <v>44140.69899305556</v>
+        <v>44140.69738425926</v>
       </c>
       <c r="G174" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H174" t="s">
         <v>60</v>
@@ -11921,22 +11886,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C175" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D175" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E175" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F175" s="2">
-        <v>44140.70046296297</v>
+        <v>44140.69899305556</v>
       </c>
       <c r="G175" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H175" t="s">
         <v>60</v>
@@ -11950,22 +11915,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C176" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D176" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E176" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F176" s="2">
-        <v>44140.70789351852</v>
+        <v>44140.70046296297</v>
       </c>
       <c r="G176" t="s">
-        <v>58</v>
+        <v>376</v>
       </c>
       <c r="H176" t="s">
         <v>60</v>
@@ -11979,19 +11944,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C177" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D177" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E177" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F177" s="2">
-        <v>44140.70958333334</v>
+        <v>44140.70789351852</v>
       </c>
       <c r="G177" t="s">
         <v>58</v>
@@ -12008,27 +11973,56 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C178" t="s">
+        <v>744</v>
+      </c>
+      <c r="D178" t="s">
+        <v>917</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F178" s="2">
+        <v>44140.70958333334</v>
+      </c>
+      <c r="G178" t="s">
+        <v>58</v>
+      </c>
+      <c r="H178" t="s">
+        <v>60</v>
+      </c>
+      <c r="K178" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>567</v>
+      </c>
+      <c r="C179" t="s">
         <v>745</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D179" t="s">
         <v>918</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E179" t="s">
         <v>1084</v>
       </c>
-      <c r="F178" s="2">
+      <c r="F179" s="2">
         <v>44140.71355324074</v>
       </c>
-      <c r="G178" t="s">
-        <v>378</v>
-      </c>
-      <c r="H178" t="s">
-        <v>60</v>
-      </c>
-      <c r="K178" t="s">
+      <c r="G179" t="s">
+        <v>376</v>
+      </c>
+      <c r="H179" t="s">
+        <v>60</v>
+      </c>
+      <c r="K179" t="s">
         <v>1086</v>
       </c>
     </row>
@@ -12082,16 +12076,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F2" s="2">
         <v>44130.70405092592</v>
